--- a/data/utils/trait_shortname_lookup.xlsx
+++ b/data/utils/trait_shortname_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhgille2\Documents\R\projects\Jay_yield\data\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D274BAF-3DFA-49DC-BD4F-7F2D1D97C014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B24BA-C946-4CEF-8E7C-5EF0C81DB1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E71089BD-91D7-4751-9BD4-B52A68241592}"/>
+    <workbookView xWindow="-53415" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{E71089BD-91D7-4751-9BD4-B52A68241592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/utils/trait_shortname_lookup.xlsx
+++ b/data/utils/trait_shortname_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhgille2\Documents\R\projects\Jay_yield\data\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B24BA-C946-4CEF-8E7C-5EF0C81DB1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F0E18-23BA-4834-B4E8-E4B7D838F930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-53415" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{E71089BD-91D7-4751-9BD4-B52A68241592}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E71089BD-91D7-4751-9BD4-B52A68241592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Protein + Oil</t>
+  </si>
+  <si>
+    <t>protein_meal</t>
+  </si>
+  <si>
+    <t>Protein meal</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3473B202-8C09-4E87-B51E-98AACA218AFD}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +539,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
